--- a/QSortTest.xlsx
+++ b/QSortTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>N</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>Qtime/nlnn</t>
+  </si>
+  <si>
+    <t>Qsort time(худ)</t>
+  </si>
+  <si>
+    <t>Qtime(худ)/n^2</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26627777777777778"/>
+          <c:x val="0.26627773806673333"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -295,11 +301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40032256"/>
-        <c:axId val="261912768"/>
+        <c:axId val="144580096"/>
+        <c:axId val="141675904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40032256"/>
+        <c:axId val="144580096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,7 +314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261912768"/>
+        <c:crossAx val="141675904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -316,7 +322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261912768"/>
+        <c:axId val="141675904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,7 +333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40032256"/>
+        <c:crossAx val="144580096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -343,7 +349,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -369,108 +375,105 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14339107611548557"/>
+          <c:y val="7.4548702245552628E-2"/>
+          <c:w val="0.67523381452318465"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>Время сортировки/ nlnn</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Qtime/nlnn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Лист1!$A$1:$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>N</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>250000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>350000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400000</c:v>
+                  <c:v>450000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>450000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>500000</c:v>
+                  <c:v>550000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>550000</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>600000</c:v>
+                  <c:v>700000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>700000</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>800000</c:v>
+                  <c:v>900000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>900000</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>1000000</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Лист1!$C$2:$C$24</c:f>
               <c:numCache>
@@ -547,8 +550,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -558,30 +561,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="130949120"/>
-        <c:axId val="216275712"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="130949120"/>
+        <c:axId val="141678208"/>
+        <c:axId val="141678784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141678208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216275712"/>
+        <c:crossAx val="141678784"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="216275712"/>
+        <c:axId val="141678784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,9 +591,176 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130949120"/>
+        <c:crossAx val="141678208"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83054320557996553"/>
+          <c:y val="0.40042557417371427"/>
+          <c:w val="0.16945673292658001"/>
+          <c:h val="6.5347944447716785E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Время сортировки/n^2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6875E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1982222222222221E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1586944444444445E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141679360"/>
+        <c:axId val="141679936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141679360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141679936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141679936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141679360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -618,16 +784,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30962</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -649,19 +815,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>23776</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177834</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118879</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -671,6 +837,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2" title="ыва"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -966,18 +1162,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,8 +1184,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -996,11 +1199,18 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>B2/(LN(A2)*A2)</f>
+        <f t="shared" ref="C2:C24" si="0">B2/(LN(A2)*A2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E11" si="1">D2/(A2*A2)</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1008,11 +1218,18 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f>B3/(LN(A3)*A3)</f>
+        <f t="shared" si="0"/>
         <v>6.4364476997600989E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -1020,11 +1237,18 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>B4/(LN(A4)*A4)</f>
+        <f t="shared" si="0"/>
         <v>2.8952965460216789E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -1032,11 +1256,18 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>B5/(LN(A5)*A5)</f>
+        <f t="shared" si="0"/>
         <v>2.081676431395479E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>144</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -1044,11 +1275,18 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f>B6/(LN(A6)*A6)</f>
+        <f t="shared" si="0"/>
         <v>1.8085254671583421E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>270</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.6875E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -1056,11 +1294,18 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <f>B7/(LN(A7)*A7)</f>
+        <f t="shared" si="0"/>
         <v>1.6286043071371943E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1200</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.2E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30000</v>
       </c>
@@ -1068,11 +1313,18 @@
         <v>48</v>
       </c>
       <c r="C8">
-        <f>B8/(LN(A8)*A8)</f>
+        <f t="shared" si="0"/>
         <v>1.5520490322049868E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>10784</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.1982222222222221E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60000</v>
       </c>
@@ -1080,11 +1332,18 @@
         <v>101</v>
       </c>
       <c r="C9">
-        <f>B9/(LN(A9)*A9)</f>
+        <f t="shared" si="0"/>
         <v>1.5300109593888975E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>41713</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.1586944444444445E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -1092,11 +1351,18 @@
         <v>124</v>
       </c>
       <c r="C10">
-        <f>B10/(LN(A10)*A10)</f>
+        <f t="shared" si="0"/>
         <v>1.3729228889046422E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>74068</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.1573124999999999E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100000</v>
       </c>
@@ -1104,11 +1370,18 @@
         <v>163</v>
       </c>
       <c r="C11">
-        <f>B11/(LN(A11)*A11)</f>
+        <f t="shared" si="0"/>
         <v>1.4158000110046009E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>111803</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.11803E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>200000</v>
       </c>
@@ -1116,11 +1389,11 @@
         <v>338</v>
       </c>
       <c r="C12">
-        <f>B12/(LN(A12)*A12)</f>
+        <f t="shared" si="0"/>
         <v>1.3845567276865852E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>250000</v>
       </c>
@@ -1128,11 +1401,11 @@
         <v>420</v>
       </c>
       <c r="C13">
-        <f>B13/(LN(A13)*A13)</f>
+        <f t="shared" si="0"/>
         <v>1.3516540169496209E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>300000</v>
       </c>
@@ -1140,11 +1413,11 @@
         <v>531</v>
       </c>
       <c r="C14">
-        <f>B14/(LN(A14)*A14)</f>
+        <f t="shared" si="0"/>
         <v>1.403476748495137E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>350000</v>
       </c>
@@ -1152,11 +1425,11 @@
         <v>632</v>
       </c>
       <c r="C15">
-        <f>B15/(LN(A15)*A15)</f>
+        <f t="shared" si="0"/>
         <v>1.4145059979535119E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>400000</v>
       </c>
@@ -1164,7 +1437,7 @@
         <v>700</v>
       </c>
       <c r="C16">
-        <f>B16/(LN(A16)*A16)</f>
+        <f t="shared" si="0"/>
         <v>1.3566711968583005E-4</v>
       </c>
     </row>
@@ -1176,7 +1449,7 @@
         <v>805</v>
       </c>
       <c r="C17">
-        <f>B17/(LN(A17)*A17)</f>
+        <f t="shared" si="0"/>
         <v>1.3742709499941464E-4</v>
       </c>
     </row>
@@ -1188,7 +1461,7 @@
         <v>909</v>
       </c>
       <c r="C18">
-        <f>B18/(LN(A18)*A18)</f>
+        <f t="shared" si="0"/>
         <v>1.3854211682100284E-4</v>
       </c>
     </row>
@@ -1200,7 +1473,7 @@
         <v>1022</v>
       </c>
       <c r="C19">
-        <f>B19/(LN(A19)*A19)</f>
+        <f t="shared" si="0"/>
         <v>1.4058312229752435E-4</v>
       </c>
     </row>
@@ -1212,7 +1485,7 @@
         <v>1100</v>
       </c>
       <c r="C20">
-        <f>B20/(LN(A20)*A20)</f>
+        <f t="shared" si="0"/>
         <v>1.3779607276689012E-4</v>
       </c>
     </row>
@@ -1224,7 +1497,7 @@
         <v>1296</v>
       </c>
       <c r="C21">
-        <f>B21/(LN(A21)*A21)</f>
+        <f t="shared" si="0"/>
         <v>1.3756231404588859E-4</v>
       </c>
     </row>
@@ -1236,7 +1509,7 @@
         <v>1527</v>
       </c>
       <c r="C22">
-        <f>B22/(LN(A22)*A22)</f>
+        <f t="shared" si="0"/>
         <v>1.4042807989705873E-4</v>
       </c>
     </row>
@@ -1248,7 +1521,7 @@
         <v>1716</v>
       </c>
       <c r="C23">
-        <f>B23/(LN(A23)*A23)</f>
+        <f t="shared" si="0"/>
         <v>1.3906971555986775E-4</v>
       </c>
     </row>
@@ -1260,7 +1533,7 @@
         <v>1916</v>
       </c>
       <c r="C24">
-        <f>B24/(LN(A24)*A24)</f>
+        <f t="shared" si="0"/>
         <v>1.3868470455443842E-4</v>
       </c>
     </row>

--- a/QSortTest.xlsx
+++ b/QSortTest.xlsx
@@ -301,20 +301,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144580096"/>
-        <c:axId val="141675904"/>
+        <c:axId val="220208640"/>
+        <c:axId val="213489856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144580096"/>
+        <c:axId val="220208640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>количество элементов, шт</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141675904"/>
+        <c:crossAx val="213489856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -322,18 +341,41 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141675904"/>
+        <c:axId val="213489856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>время, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144580096"/>
+        <c:crossAx val="220208640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -561,37 +603,79 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141678208"/>
-        <c:axId val="141678784"/>
+        <c:axId val="221921856"/>
+        <c:axId val="221922432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141678208"/>
+        <c:axId val="221921856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>количество элементов, шт</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141678784"/>
+        <c:crossAx val="221922432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141678784"/>
+        <c:axId val="221922432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>время, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141678208"/>
+        <c:crossAx val="221921856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -637,7 +721,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26199370189437415"/>
+          <c:y val="3.8526907025017459E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -728,37 +819,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141679360"/>
-        <c:axId val="141679936"/>
+        <c:axId val="221923008"/>
+        <c:axId val="221923584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141679360"/>
+        <c:axId val="221923008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>количество элементов</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> шт</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141679936"/>
+        <c:crossAx val="221923584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141679936"/>
+        <c:axId val="221923584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141679360"/>
+        <c:crossAx val="221923008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -784,16 +934,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30962</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>99709</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>339075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>175909</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>283045</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -845,15 +995,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1164,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
